--- a/state_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
+++ b/state_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U246"/>
+  <dimension ref="A1:U266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         <v>0.725</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27210164345692</v>
+        <v>1.28409167338766</v>
       </c>
       <c r="H3" t="n">
         <v>6.91</v>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94482</v>
+        <v>3.08019</v>
       </c>
       <c r="O3" t="n">
         <v>1823088</v>
@@ -728,7 +728,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0126143872840673</v>
+        <v>0.0126284274055965</v>
       </c>
       <c r="H4" t="n">
         <v>0.036</v>
@@ -809,7 +809,7 @@
         <v>0.011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0126143872840673</v>
+        <v>0.0126284274055965</v>
       </c>
       <c r="H5" t="n">
         <v>0.036</v>
@@ -890,7 +890,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>813.200136083898</v>
+        <v>813.199486148709</v>
       </c>
       <c r="H6" t="n">
         <v>10462</v>
@@ -975,7 +975,7 @@
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>813.200136083898</v>
+        <v>813.199486148709</v>
       </c>
       <c r="H7" t="n">
         <v>10462</v>
@@ -1060,7 +1060,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>813.200136083898</v>
+        <v>813.199486148709</v>
       </c>
       <c r="H8" t="n">
         <v>10462</v>
@@ -1145,7 +1145,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>813.200136083898</v>
+        <v>813.199486148709</v>
       </c>
       <c r="H9" t="n">
         <v>10462</v>
@@ -1307,7 +1307,7 @@
         <v>0.00374</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009199357144310199</v>
+        <v>0.009207688753137801</v>
       </c>
       <c r="H11" t="n">
         <v>0.143344559095329</v>
@@ -1388,7 +1388,7 @@
         <v>0.00374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009199357144310199</v>
+        <v>0.009207688753137801</v>
       </c>
       <c r="H12" t="n">
         <v>0.143344559095329</v>
@@ -2093,7 +2093,7 @@
         <v>0.705</v>
       </c>
       <c r="G21" t="n">
-        <v>1.22978870456486</v>
+        <v>1.24290004163596</v>
       </c>
       <c r="H21" t="n">
         <v>6.91</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.94482</v>
+        <v>3.08019</v>
       </c>
       <c r="O21" t="n">
         <v>1823088</v>
@@ -2174,7 +2174,7 @@
         <v>0.011</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0122029974117435</v>
+        <v>0.0122174785826646</v>
       </c>
       <c r="H22" t="n">
         <v>0.036</v>
@@ -2255,7 +2255,7 @@
         <v>0.011</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0122029974117435</v>
+        <v>0.0122174785826646</v>
       </c>
       <c r="H23" t="n">
         <v>0.036</v>
@@ -2336,7 +2336,7 @@
         <v>120</v>
       </c>
       <c r="G24" t="n">
-        <v>716.1153903211861</v>
+        <v>716.114740385997</v>
       </c>
       <c r="H24" t="n">
         <v>10462</v>
@@ -2421,7 +2421,7 @@
         <v>120</v>
       </c>
       <c r="G25" t="n">
-        <v>716.1153903211861</v>
+        <v>716.114740385997</v>
       </c>
       <c r="H25" t="n">
         <v>10462</v>
@@ -2506,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="G26" t="n">
-        <v>716.1153903211861</v>
+        <v>716.114740385997</v>
       </c>
       <c r="H26" t="n">
         <v>10462</v>
@@ -2591,7 +2591,7 @@
         <v>120</v>
       </c>
       <c r="G27" t="n">
-        <v>716.1153903211861</v>
+        <v>716.114740385997</v>
       </c>
       <c r="H27" t="n">
         <v>10462</v>
@@ -2753,7 +2753,7 @@
         <v>0.0059</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0092984026416616</v>
+        <v>0.009305327594899901</v>
       </c>
       <c r="H29" t="n">
         <v>0.0429608672420805</v>
@@ -2834,7 +2834,7 @@
         <v>0.0059</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0092984026416616</v>
+        <v>0.009305327594899901</v>
       </c>
       <c r="H30" t="n">
         <v>0.0429608672420805</v>
@@ -3620,13 +3620,13 @@
         <v>0.7</v>
       </c>
       <c r="G40" t="n">
-        <v>1.07090155359485</v>
+        <v>1.06613536183667</v>
       </c>
       <c r="H40" t="n">
-        <v>7.18819604380048</v>
+        <v>6.63402802220778</v>
       </c>
       <c r="I40" t="n">
-        <v>3.04017</v>
+        <v>3.29736</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
         <v>0.013</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0125580763195666</v>
+        <v>0.0125702668136148</v>
       </c>
       <c r="H41" t="n">
         <v>0.036</v>
@@ -3782,7 +3782,7 @@
         <v>0.013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0125580763195666</v>
+        <v>0.0125702668136148</v>
       </c>
       <c r="H42" t="n">
         <v>0.036</v>
@@ -4280,7 +4280,7 @@
         <v>0.00644</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0095038356481213</v>
+        <v>0.0095092291198292</v>
       </c>
       <c r="H48" t="n">
         <v>0.0429608672420805</v>
@@ -4361,7 +4361,7 @@
         <v>0.00644</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0095038356481213</v>
+        <v>0.0095092291198292</v>
       </c>
       <c r="H49" t="n">
         <v>0.0429608672420805</v>
@@ -5224,13 +5224,13 @@
         <v>0.7</v>
       </c>
       <c r="G60" t="n">
-        <v>1.05753897967785</v>
+        <v>1.0521077379069</v>
       </c>
       <c r="H60" t="n">
-        <v>7.18819604380048</v>
+        <v>6.63402802220778</v>
       </c>
       <c r="I60" t="n">
-        <v>2.57388</v>
+        <v>2.66863</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -5305,7 +5305,7 @@
         <v>0.012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0122556274623594</v>
+        <v>0.0122640072065051</v>
       </c>
       <c r="H61" t="n">
         <v>0.036</v>
@@ -5386,7 +5386,7 @@
         <v>0.012</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0122556274623594</v>
+        <v>0.0122640072065051</v>
       </c>
       <c r="H62" t="n">
         <v>0.036</v>
@@ -5884,7 +5884,7 @@
         <v>0.00473</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0087251221938332</v>
+        <v>0.0087284255772218</v>
       </c>
       <c r="H68" t="n">
         <v>0.0429608672420805</v>
@@ -5965,7 +5965,7 @@
         <v>0.00473</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0087251221938332</v>
+        <v>0.0087284255772218</v>
       </c>
       <c r="H69" t="n">
         <v>0.0429608672420805</v>
@@ -6905,13 +6905,13 @@
         <v>0.7</v>
       </c>
       <c r="G81" t="n">
-        <v>1.10688753312199</v>
+        <v>1.10001860970578</v>
       </c>
       <c r="H81" t="n">
-        <v>7.18819604380048</v>
+        <v>6.63402802220778</v>
       </c>
       <c r="I81" t="n">
-        <v>2.86172</v>
+        <v>3.07831</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
         <v>0.012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0117827678800512</v>
+        <v>0.0117883501370257</v>
       </c>
       <c r="H82" t="n">
         <v>0.034</v>
@@ -7067,7 +7067,7 @@
         <v>0.012</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0117827678800512</v>
+        <v>0.0117883501370257</v>
       </c>
       <c r="H83" t="n">
         <v>0.034</v>
@@ -7148,7 +7148,7 @@
         <v>101</v>
       </c>
       <c r="G84" t="n">
-        <v>483.470091863123</v>
+        <v>483.470207718248</v>
       </c>
       <c r="H84" t="n">
         <v>7080</v>
@@ -7233,7 +7233,7 @@
         <v>101</v>
       </c>
       <c r="G85" t="n">
-        <v>483.470091863123</v>
+        <v>483.470207718248</v>
       </c>
       <c r="H85" t="n">
         <v>7080</v>
@@ -7318,7 +7318,7 @@
         <v>101</v>
       </c>
       <c r="G86" t="n">
-        <v>483.470091863123</v>
+        <v>483.470207718248</v>
       </c>
       <c r="H86" t="n">
         <v>7080</v>
@@ -7403,7 +7403,7 @@
         <v>101</v>
       </c>
       <c r="G87" t="n">
-        <v>483.470091863123</v>
+        <v>483.470207718248</v>
       </c>
       <c r="H87" t="n">
         <v>7080</v>
@@ -7565,7 +7565,7 @@
         <v>0.00463</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0085616972143747</v>
+        <v>0.008562674790034299</v>
       </c>
       <c r="H89" t="n">
         <v>0.0429608672420805</v>
@@ -7646,7 +7646,7 @@
         <v>0.00463</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0085616972143747</v>
+        <v>0.008562674790034299</v>
       </c>
       <c r="H90" t="n">
         <v>0.0429608672420805</v>
@@ -7727,7 +7727,7 @@
         <v>0.44785</v>
       </c>
       <c r="G91" t="n">
-        <v>0.416926116475509</v>
+        <v>0.416985148565514</v>
       </c>
       <c r="H91" t="n">
         <v>1.19</v>
@@ -7808,7 +7808,7 @@
         <v>0.44785</v>
       </c>
       <c r="G92" t="n">
-        <v>0.416926116475509</v>
+        <v>0.416985148565514</v>
       </c>
       <c r="H92" t="n">
         <v>1.19</v>
@@ -7962,7 +7962,7 @@
         <v>0.457</v>
       </c>
       <c r="G94" t="n">
-        <v>0.43574031946902</v>
+        <v>0.435808643267706</v>
       </c>
       <c r="H94" t="n">
         <v>1.244</v>
@@ -8039,7 +8039,7 @@
         <v>0.457</v>
       </c>
       <c r="G95" t="n">
-        <v>0.43574031946902</v>
+        <v>0.435808643267706</v>
       </c>
       <c r="H95" t="n">
         <v>1.244</v>
@@ -8586,10 +8586,10 @@
         <v>0.71</v>
       </c>
       <c r="G102" t="n">
-        <v>1.14831904457325</v>
+        <v>1.13303789434612</v>
       </c>
       <c r="H102" t="n">
-        <v>7.18819604380048</v>
+        <v>6.63402802220778</v>
       </c>
       <c r="I102" t="n">
         <v>2.3925</v>
@@ -8667,7 +8667,7 @@
         <v>0.012</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0110907416683022</v>
+        <v>0.0110950596904824</v>
       </c>
       <c r="H103" t="n">
         <v>0.022</v>
@@ -8748,7 +8748,7 @@
         <v>0.012</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0110907416683022</v>
+        <v>0.0110950596904824</v>
       </c>
       <c r="H104" t="n">
         <v>0.022</v>
@@ -8829,7 +8829,7 @@
         <v>95</v>
       </c>
       <c r="G105" t="n">
-        <v>481.436593658183</v>
+        <v>481.436684953542</v>
       </c>
       <c r="H105" t="n">
         <v>7080</v>
@@ -8914,7 +8914,7 @@
         <v>95</v>
       </c>
       <c r="G106" t="n">
-        <v>481.436593658183</v>
+        <v>481.436684953542</v>
       </c>
       <c r="H106" t="n">
         <v>7080</v>
@@ -8999,7 +8999,7 @@
         <v>95</v>
       </c>
       <c r="G107" t="n">
-        <v>481.436593658183</v>
+        <v>481.436684953542</v>
       </c>
       <c r="H107" t="n">
         <v>7080</v>
@@ -9084,7 +9084,7 @@
         <v>95</v>
       </c>
       <c r="G108" t="n">
-        <v>481.436593658183</v>
+        <v>481.436684953542</v>
       </c>
       <c r="H108" t="n">
         <v>7080</v>
@@ -9246,7 +9246,7 @@
         <v>0.00136</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0062137626355509</v>
+        <v>0.0062137803479791</v>
       </c>
       <c r="H110" t="n">
         <v>0.0429608672420805</v>
@@ -9327,7 +9327,7 @@
         <v>0.00136</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0062137626355509</v>
+        <v>0.0062137803479791</v>
       </c>
       <c r="H111" t="n">
         <v>0.0429608672420805</v>
@@ -9408,7 +9408,7 @@
         <v>0.42785</v>
       </c>
       <c r="G112" t="n">
-        <v>0.409047895958259</v>
+        <v>0.409183646434555</v>
       </c>
       <c r="H112" t="n">
         <v>1.15</v>
@@ -9489,7 +9489,7 @@
         <v>0.42785</v>
       </c>
       <c r="G113" t="n">
-        <v>0.409047895958259</v>
+        <v>0.409183646434555</v>
       </c>
       <c r="H113" t="n">
         <v>1.15</v>
@@ -9643,7 +9643,7 @@
         <v>0.4445</v>
       </c>
       <c r="G115" t="n">
-        <v>0.42421386216965</v>
+        <v>0.424322518214439</v>
       </c>
       <c r="H115" t="n">
         <v>1.165</v>
@@ -9720,7 +9720,7 @@
         <v>0.4445</v>
       </c>
       <c r="G116" t="n">
-        <v>0.42421386216965</v>
+        <v>0.424322518214439</v>
       </c>
       <c r="H116" t="n">
         <v>1.165</v>
@@ -10267,10 +10267,10 @@
         <v>0.9</v>
       </c>
       <c r="G123" t="n">
-        <v>1.20449078920608</v>
+        <v>1.18769781885478</v>
       </c>
       <c r="H123" t="n">
-        <v>7.18819604380048</v>
+        <v>6.63402802220778</v>
       </c>
       <c r="I123" t="n">
         <v>2.3925</v>
@@ -10348,7 +10348,7 @@
         <v>0.013</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0121958875729086</v>
+        <v>0.0121987819247283</v>
       </c>
       <c r="H124" t="n">
         <v>0.022</v>
@@ -10429,7 +10429,7 @@
         <v>0.013</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0121958875729086</v>
+        <v>0.0121987819247283</v>
       </c>
       <c r="H125" t="n">
         <v>0.022</v>
@@ -10510,7 +10510,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="n">
-        <v>395.003315584593</v>
+        <v>395.003408427331</v>
       </c>
       <c r="H126" t="n">
         <v>3500</v>
@@ -10595,7 +10595,7 @@
         <v>114</v>
       </c>
       <c r="G127" t="n">
-        <v>395.003315584593</v>
+        <v>395.003408427331</v>
       </c>
       <c r="H127" t="n">
         <v>3500</v>
@@ -10680,7 +10680,7 @@
         <v>114</v>
       </c>
       <c r="G128" t="n">
-        <v>395.003315584593</v>
+        <v>395.003408427331</v>
       </c>
       <c r="H128" t="n">
         <v>3500</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="G129" t="n">
-        <v>395.003315584593</v>
+        <v>395.003408427331</v>
       </c>
       <c r="H129" t="n">
         <v>3500</v>
@@ -10927,7 +10927,7 @@
         <v>0.00136</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0037066315518355</v>
+        <v>0.003703425812823</v>
       </c>
       <c r="H131" t="n">
         <v>0.0258029992047711</v>
@@ -10941,7 +10941,7 @@
         <v>0.00122</v>
       </c>
       <c r="M131" t="n">
-        <v>0.00796</v>
+        <v>0.00793</v>
       </c>
       <c r="N131" t="n">
         <v>0.01288</v>
@@ -11008,7 +11008,7 @@
         <v>0.00136</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0037066315518355</v>
+        <v>0.003703425812823</v>
       </c>
       <c r="H132" t="n">
         <v>0.0258029992047711</v>
@@ -11022,7 +11022,7 @@
         <v>0.00122</v>
       </c>
       <c r="M132" t="n">
-        <v>0.00796</v>
+        <v>0.00793</v>
       </c>
       <c r="N132" t="n">
         <v>0.01288</v>
@@ -11089,7 +11089,7 @@
         <v>0.40185</v>
       </c>
       <c r="G133" t="n">
-        <v>0.420697895958259</v>
+        <v>0.420833646434555</v>
       </c>
       <c r="H133" t="n">
         <v>1.15</v>
@@ -11170,7 +11170,7 @@
         <v>0.40185</v>
       </c>
       <c r="G134" t="n">
-        <v>0.420697895958259</v>
+        <v>0.420833646434555</v>
       </c>
       <c r="H134" t="n">
         <v>1.15</v>
@@ -11324,7 +11324,7 @@
         <v>0.409</v>
       </c>
       <c r="G136" t="n">
-        <v>0.435030528836317</v>
+        <v>0.435139184881105</v>
       </c>
       <c r="H136" t="n">
         <v>1.19</v>
@@ -11401,7 +11401,7 @@
         <v>0.409</v>
       </c>
       <c r="G137" t="n">
-        <v>0.435030528836317</v>
+        <v>0.435139184881105</v>
       </c>
       <c r="H137" t="n">
         <v>1.19</v>
@@ -12029,7 +12029,7 @@
         <v>0.013</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0137301329945861</v>
+        <v>0.0137344955663247</v>
       </c>
       <c r="H145" t="n">
         <v>0.07099999999999999</v>
@@ -12110,7 +12110,7 @@
         <v>0.013</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0137301329945861</v>
+        <v>0.0137344955663247</v>
       </c>
       <c r="H146" t="n">
         <v>0.07099999999999999</v>
@@ -12191,7 +12191,7 @@
         <v>150</v>
       </c>
       <c r="G147" t="n">
-        <v>1433.6473833812</v>
+        <v>1433.64747622394</v>
       </c>
       <c r="H147" t="n">
         <v>24000</v>
@@ -12276,7 +12276,7 @@
         <v>150</v>
       </c>
       <c r="G148" t="n">
-        <v>1433.6473833812</v>
+        <v>1433.64747622394</v>
       </c>
       <c r="H148" t="n">
         <v>24000</v>
@@ -12361,7 +12361,7 @@
         <v>150</v>
       </c>
       <c r="G149" t="n">
-        <v>1433.6473833812</v>
+        <v>1433.64747622394</v>
       </c>
       <c r="H149" t="n">
         <v>24000</v>
@@ -12446,7 +12446,7 @@
         <v>150</v>
       </c>
       <c r="G150" t="n">
-        <v>1433.6473833812</v>
+        <v>1433.64747622394</v>
       </c>
       <c r="H150" t="n">
         <v>24000</v>
@@ -12605,10 +12605,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.00181</v>
+        <v>0.0018</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0041731549210473</v>
+        <v>0.0041666387740291</v>
       </c>
       <c r="H152" t="n">
         <v>0.0258029992047711</v>
@@ -12686,10 +12686,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.00181</v>
+        <v>0.0018</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0041731549210473</v>
+        <v>0.0041666387740291</v>
       </c>
       <c r="H153" t="n">
         <v>0.0258029992047711</v>
@@ -12770,7 +12770,7 @@
         <v>0.4646</v>
       </c>
       <c r="G154" t="n">
-        <v>0.445387895958259</v>
+        <v>0.445523646434555</v>
       </c>
       <c r="H154" t="n">
         <v>1.15</v>
@@ -12851,7 +12851,7 @@
         <v>0.4646</v>
       </c>
       <c r="G155" t="n">
-        <v>0.445387895958259</v>
+        <v>0.445523646434555</v>
       </c>
       <c r="H155" t="n">
         <v>1.15</v>
@@ -13005,7 +13005,7 @@
         <v>0.4815</v>
       </c>
       <c r="G157" t="n">
-        <v>0.461647195502984</v>
+        <v>0.461755851547772</v>
       </c>
       <c r="H157" t="n">
         <v>1.19</v>
@@ -13082,7 +13082,7 @@
         <v>0.4815</v>
       </c>
       <c r="G158" t="n">
-        <v>0.461647195502984</v>
+        <v>0.461755851547772</v>
       </c>
       <c r="H158" t="n">
         <v>1.19</v>
@@ -13710,7 +13710,7 @@
         <v>0.0135</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0138801329945861</v>
+        <v>0.0138844955663247</v>
       </c>
       <c r="H166" t="n">
         <v>0.07099999999999999</v>
@@ -13791,7 +13791,7 @@
         <v>0.0135</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0138801329945861</v>
+        <v>0.0138844955663247</v>
       </c>
       <c r="H167" t="n">
         <v>0.07099999999999999</v>
@@ -13872,7 +13872,7 @@
         <v>150</v>
       </c>
       <c r="G168" t="n">
-        <v>1408.07111219476</v>
+        <v>1408.0712050375</v>
       </c>
       <c r="H168" t="n">
         <v>24000</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="G169" t="n">
-        <v>1408.07111219476</v>
+        <v>1408.0712050375</v>
       </c>
       <c r="H169" t="n">
         <v>24000</v>
@@ -14042,7 +14042,7 @@
         <v>150</v>
       </c>
       <c r="G170" t="n">
-        <v>1408.07111219476</v>
+        <v>1408.0712050375</v>
       </c>
       <c r="H170" t="n">
         <v>24000</v>
@@ -14127,7 +14127,7 @@
         <v>150</v>
       </c>
       <c r="G171" t="n">
-        <v>1408.07111219476</v>
+        <v>1408.0712050375</v>
       </c>
       <c r="H171" t="n">
         <v>24000</v>
@@ -14286,10 +14286,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.00258</v>
+        <v>0.00253</v>
       </c>
       <c r="G173" t="n">
-        <v>0.005887415173494</v>
+        <v>0.005870122065831</v>
       </c>
       <c r="H173" t="n">
         <v>0.0413338025949644</v>
@@ -14300,7 +14300,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.00215</v>
+        <v>0.00214</v>
       </c>
       <c r="M173" t="n">
         <v>0.01055</v>
@@ -14367,10 +14367,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.00258</v>
+        <v>0.00253</v>
       </c>
       <c r="G174" t="n">
-        <v>0.005887415173494</v>
+        <v>0.005870122065831</v>
       </c>
       <c r="H174" t="n">
         <v>0.0413338025949644</v>
@@ -14381,7 +14381,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00215</v>
+        <v>0.00214</v>
       </c>
       <c r="M174" t="n">
         <v>0.01055</v>
@@ -14451,7 +14451,7 @@
         <v>0.45235</v>
       </c>
       <c r="G175" t="n">
-        <v>0.447252895958259</v>
+        <v>0.447388646434555</v>
       </c>
       <c r="H175" t="n">
         <v>1.15</v>
@@ -14532,7 +14532,7 @@
         <v>0.45235</v>
       </c>
       <c r="G176" t="n">
-        <v>0.447252895958259</v>
+        <v>0.447388646434555</v>
       </c>
       <c r="H176" t="n">
         <v>1.15</v>
@@ -14686,7 +14686,7 @@
         <v>0.4755</v>
       </c>
       <c r="G178" t="n">
-        <v>0.465780528836317</v>
+        <v>0.465889184881105</v>
       </c>
       <c r="H178" t="n">
         <v>1.19</v>
@@ -14763,7 +14763,7 @@
         <v>0.4755</v>
       </c>
       <c r="G179" t="n">
-        <v>0.465780528836317</v>
+        <v>0.465889184881105</v>
       </c>
       <c r="H179" t="n">
         <v>1.19</v>
@@ -15391,7 +15391,7 @@
         <v>0.013</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0132509827063587</v>
+        <v>0.0132554192199913</v>
       </c>
       <c r="H187" t="n">
         <v>0.07099999999999999</v>
@@ -15472,7 +15472,7 @@
         <v>0.013</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0132509827063587</v>
+        <v>0.0132554192199913</v>
       </c>
       <c r="H188" t="n">
         <v>0.07099999999999999</v>
@@ -15553,7 +15553,7 @@
         <v>150</v>
       </c>
       <c r="G189" t="n">
-        <v>1495.98258806386</v>
+        <v>1495.9825626572</v>
       </c>
       <c r="H189" t="n">
         <v>24000</v>
@@ -15638,7 +15638,7 @@
         <v>150</v>
       </c>
       <c r="G190" t="n">
-        <v>1495.98258806386</v>
+        <v>1495.9825626572</v>
       </c>
       <c r="H190" t="n">
         <v>24000</v>
@@ -15723,7 +15723,7 @@
         <v>150</v>
       </c>
       <c r="G191" t="n">
-        <v>1495.98258806386</v>
+        <v>1495.9825626572</v>
       </c>
       <c r="H191" t="n">
         <v>24000</v>
@@ -15808,7 +15808,7 @@
         <v>150</v>
       </c>
       <c r="G192" t="n">
-        <v>1495.98258806386</v>
+        <v>1495.9825626572</v>
       </c>
       <c r="H192" t="n">
         <v>24000</v>
@@ -15967,10 +15967,10 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.00318</v>
+        <v>0.00309</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0055539055224728</v>
+        <v>0.0055352870298998</v>
       </c>
       <c r="H194" t="n">
         <v>0.0413338025949644</v>
@@ -15981,7 +15981,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
-        <v>0.00252</v>
+        <v>0.00248</v>
       </c>
       <c r="M194" t="n">
         <v>0.0095</v>
@@ -16048,10 +16048,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.00318</v>
+        <v>0.00309</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0055539055224728</v>
+        <v>0.0055352870298998</v>
       </c>
       <c r="H195" t="n">
         <v>0.0413338025949644</v>
@@ -16062,7 +16062,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>0.00252</v>
+        <v>0.00248</v>
       </c>
       <c r="M195" t="n">
         <v>0.0095</v>
@@ -16132,7 +16132,7 @@
         <v>0.388</v>
       </c>
       <c r="G196" t="n">
-        <v>0.433437781600999</v>
+        <v>0.433604369082173</v>
       </c>
       <c r="H196" t="n">
         <v>1.15</v>
@@ -16213,7 +16213,7 @@
         <v>0.388</v>
       </c>
       <c r="G197" t="n">
-        <v>0.433437781600999</v>
+        <v>0.433604369082173</v>
       </c>
       <c r="H197" t="n">
         <v>1.15</v>
@@ -16367,7 +16367,7 @@
         <v>0.415</v>
       </c>
       <c r="G199" t="n">
-        <v>0.44970190783115</v>
+        <v>0.449742923674644</v>
       </c>
       <c r="H199" t="n">
         <v>1.19</v>
@@ -16444,7 +16444,7 @@
         <v>0.415</v>
       </c>
       <c r="G200" t="n">
-        <v>0.44970190783115</v>
+        <v>0.449742923674644</v>
       </c>
       <c r="H200" t="n">
         <v>1.19</v>
@@ -17072,7 +17072,7 @@
         <v>0.013</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0134077072084855</v>
+        <v>0.0134092003134879</v>
       </c>
       <c r="H208" t="n">
         <v>0.07099999999999999</v>
@@ -17153,7 +17153,7 @@
         <v>0.013</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0134077072084855</v>
+        <v>0.0134092003134879</v>
       </c>
       <c r="H209" t="n">
         <v>0.07099999999999999</v>
@@ -17648,10 +17648,10 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.00437</v>
+        <v>0.00434</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0059468524208152</v>
+        <v>0.0059293176441551</v>
       </c>
       <c r="H215" t="n">
         <v>0.0413338025949644</v>
@@ -17662,7 +17662,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
-        <v>0.00362</v>
+        <v>0.00353</v>
       </c>
       <c r="M215" t="n">
         <v>0.00962</v>
@@ -17729,10 +17729,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00437</v>
+        <v>0.00434</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0059468524208152</v>
+        <v>0.0059293176441551</v>
       </c>
       <c r="H216" t="n">
         <v>0.0413338025949644</v>
@@ -17743,7 +17743,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00362</v>
+        <v>0.00353</v>
       </c>
       <c r="M216" t="n">
         <v>0.00962</v>
@@ -17813,7 +17813,7 @@
         <v>0.368</v>
       </c>
       <c r="G217" t="n">
-        <v>0.404856310940575</v>
+        <v>0.404944879723826</v>
       </c>
       <c r="H217" t="n">
         <v>1.15</v>
@@ -17894,7 +17894,7 @@
         <v>0.368</v>
       </c>
       <c r="G218" t="n">
-        <v>0.404856310940575</v>
+        <v>0.404944879723826</v>
       </c>
       <c r="H218" t="n">
         <v>1.15</v>
@@ -18753,7 +18753,7 @@
         <v>0.013</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0137975377169601</v>
+        <v>0.0137990308219624</v>
       </c>
       <c r="H229" t="n">
         <v>0.07099999999999999</v>
@@ -18834,7 +18834,7 @@
         <v>0.013</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0137975377169601</v>
+        <v>0.0137990308219624</v>
       </c>
       <c r="H230" t="n">
         <v>0.07099999999999999</v>
@@ -19332,7 +19332,7 @@
         <v>0.00498</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0068144220247663</v>
+        <v>0.0068003451323789</v>
       </c>
       <c r="H236" t="n">
         <v>0.0413338025949644</v>
@@ -19343,7 +19343,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>0.00466</v>
+        <v>0.00452</v>
       </c>
       <c r="M236" t="n">
         <v>0.01081</v>
@@ -19413,7 +19413,7 @@
         <v>0.00498</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0068144220247663</v>
+        <v>0.0068003451323789</v>
       </c>
       <c r="H237" t="n">
         <v>0.0413338025949644</v>
@@ -19424,7 +19424,7 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.00466</v>
+        <v>0.00452</v>
       </c>
       <c r="M237" t="n">
         <v>0.01081</v>
@@ -19494,7 +19494,7 @@
         <v>0.33</v>
       </c>
       <c r="G238" t="n">
-        <v>0.403280039754135</v>
+        <v>0.403368608537386</v>
       </c>
       <c r="H238" t="n">
         <v>1.05</v>
@@ -19575,7 +19575,7 @@
         <v>0.33</v>
       </c>
       <c r="G239" t="n">
-        <v>0.403280039754135</v>
+        <v>0.403368608537386</v>
       </c>
       <c r="H239" t="n">
         <v>1.05</v>
@@ -20165,6 +20165,1606 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.3914</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.4919</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.856734693877551</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.9085</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.0129830508474576</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.0129830508474576</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>200</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1458.40677966102</v>
+      </c>
+      <c r="H251" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I251" t="n">
+        <v>6135</v>
+      </c>
+      <c r="J251" t="n">
+        <v>32.2033898305085</v>
+      </c>
+      <c r="K251" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L251" t="n">
+        <v>110</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1819.38</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4979.22</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>200</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1458.40677966102</v>
+      </c>
+      <c r="H252" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I252" t="n">
+        <v>6135</v>
+      </c>
+      <c r="J252" t="n">
+        <v>32.2033898305085</v>
+      </c>
+      <c r="K252" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L252" t="n">
+        <v>110</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1819.38</v>
+      </c>
+      <c r="N252" t="n">
+        <v>4979.22</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>200</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1458.40677966102</v>
+      </c>
+      <c r="H253" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I253" t="n">
+        <v>6135</v>
+      </c>
+      <c r="J253" t="n">
+        <v>32.2033898305085</v>
+      </c>
+      <c r="K253" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L253" t="n">
+        <v>110</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1819.38</v>
+      </c>
+      <c r="N253" t="n">
+        <v>4979.22</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>200</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1458.40677966102</v>
+      </c>
+      <c r="H254" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I254" t="n">
+        <v>6135</v>
+      </c>
+      <c r="J254" t="n">
+        <v>32.2033898305085</v>
+      </c>
+      <c r="K254" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L254" t="n">
+        <v>110</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1819.38</v>
+      </c>
+      <c r="N254" t="n">
+        <v>4979.22</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>98</v>
+      </c>
+      <c r="G255" t="n">
+        <v>100.876</v>
+      </c>
+      <c r="H255" t="n">
+        <v>120</v>
+      </c>
+      <c r="I255" t="n">
+        <v>120</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>98</v>
+      </c>
+      <c r="M255" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="N255" t="n">
+        <v>120</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.00552</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.0070887276532515</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.0413338025949644</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.01102</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.00552</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.0070887276532515</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.0413338025949644</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.01102</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.416622845825521</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.93145</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.2155</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.71067</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.85802</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.416622845825521</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.93145</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.2155</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.71067</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.85802</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G260" t="n">
+        <v>5.8774</v>
+      </c>
+      <c r="H260" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="I260" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="M260" t="n">
+        <v>6.9183</v>
+      </c>
+      <c r="N260" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.432923728813559</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.95965</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.72762</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.8712</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.432923728813559</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.95965</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.72762</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.8712</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.678305084745763</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1.2078</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.678305084745763</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1.2078</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.091271186440678</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.44875</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.23272</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Manawatu at Teachers College</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.091271186440678</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.44875</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.23272</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1823088</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5527495</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
+++ b/state_results/Rivers/ManawatuatTeachersCollege_76ff0ccee5.xlsx
@@ -647,7 +647,7 @@
         <v>0.725</v>
       </c>
       <c r="G3" t="n">
-        <v>1.28409167338766</v>
+        <v>1.28818979769138</v>
       </c>
       <c r="H3" t="n">
         <v>6.91</v>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>3.08019</v>
+        <v>3.02686</v>
       </c>
       <c r="O3" t="n">
         <v>1823088</v>
@@ -2093,7 +2093,7 @@
         <v>0.705</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24290004163596</v>
+        <v>1.25808772385452</v>
       </c>
       <c r="H21" t="n">
         <v>6.91</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>3.08019</v>
+        <v>3.02686</v>
       </c>
       <c r="O21" t="n">
         <v>1823088</v>
@@ -3620,13 +3620,13 @@
         <v>0.7</v>
       </c>
       <c r="G40" t="n">
-        <v>1.06613536183667</v>
+        <v>1.08106871655244</v>
       </c>
       <c r="H40" t="n">
-        <v>6.63402802220778</v>
+        <v>6.91794515961513</v>
       </c>
       <c r="I40" t="n">
-        <v>3.29736</v>
+        <v>3.19604</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3634,7 +3634,7 @@
         <v>0.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.6755</v>
+        <v>1.834</v>
       </c>
       <c r="N40" t="n">
         <v>2.287</v>
@@ -5224,13 +5224,13 @@
         <v>0.7</v>
       </c>
       <c r="G60" t="n">
-        <v>1.0521077379069</v>
+        <v>1.0691248165365</v>
       </c>
       <c r="H60" t="n">
-        <v>6.63402802220778</v>
+        <v>6.91794515961513</v>
       </c>
       <c r="I60" t="n">
-        <v>2.66863</v>
+        <v>2.6313</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -5238,7 +5238,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>1.65</v>
+        <v>1.6785</v>
       </c>
       <c r="N60" t="n">
         <v>2.209</v>
@@ -6905,13 +6905,13 @@
         <v>0.7</v>
       </c>
       <c r="G81" t="n">
-        <v>1.10001860970578</v>
+        <v>1.1215402091491</v>
       </c>
       <c r="H81" t="n">
-        <v>6.63402802220778</v>
+        <v>6.91794515961513</v>
       </c>
       <c r="I81" t="n">
-        <v>3.07831</v>
+        <v>2.99298</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>0.68</v>
       </c>
       <c r="M81" t="n">
-        <v>1.65</v>
+        <v>1.758</v>
       </c>
       <c r="N81" t="n">
         <v>2.317</v>
@@ -8586,10 +8586,10 @@
         <v>0.71</v>
       </c>
       <c r="G102" t="n">
-        <v>1.13303789434612</v>
+        <v>1.15844380444155</v>
       </c>
       <c r="H102" t="n">
-        <v>6.63402802220778</v>
+        <v>6.91794515961513</v>
       </c>
       <c r="I102" t="n">
         <v>2.3925</v>
@@ -8600,7 +8600,7 @@
         <v>0.665</v>
       </c>
       <c r="M102" t="n">
-        <v>1.65</v>
+        <v>1.7835</v>
       </c>
       <c r="N102" t="n">
         <v>2.329</v>
@@ -10267,10 +10267,10 @@
         <v>0.9</v>
       </c>
       <c r="G123" t="n">
-        <v>1.18769781885478</v>
+        <v>1.19630136847319</v>
       </c>
       <c r="H123" t="n">
-        <v>6.63402802220778</v>
+        <v>6.91794515961513</v>
       </c>
       <c r="I123" t="n">
         <v>2.3925</v>
